--- a/Data/2018_HERBIERS.xlsx
+++ b/Data/2018_HERBIERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Violeau Pierre\Data_Science\Duathlon_GP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE7EAA-AC2F-459C-A918-EF35AEFECD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFB5B8-4AED-41B8-BC30-EF0EA77DE248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3030,8 +3030,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4239,7 +4239,7 @@
         <v>2.5671296296296296E-2</v>
       </c>
       <c r="O29" s="19">
-        <v>7.1875000000000003E-3</v>
+        <v>7.1874999999999994E-3</v>
       </c>
       <c r="P29" s="20">
         <v>4.521990740740741E-2</v>
@@ -4286,10 +4286,10 @@
         <v>1.1990740740740741E-2</v>
       </c>
       <c r="N30" s="14">
-        <v>0</v>
+        <v>2.5972222222222219E-2</v>
       </c>
       <c r="O30" s="15">
-        <v>0.50385416666666671</v>
+        <v>7.3263888888888892E-3</v>
       </c>
       <c r="P30" s="16">
         <v>4.5289351851851851E-2</v>
